--- a/key_mgmt/key.xlsx
+++ b/key_mgmt/key.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>区域</t>
   </si>
@@ -22,37 +22,400 @@
     <t>A区</t>
   </si>
   <si>
+    <t>477735</t>
+  </si>
+  <si>
+    <t>464926</t>
+  </si>
+  <si>
+    <t>466707</t>
+  </si>
+  <si>
+    <t>488389</t>
+  </si>
+  <si>
+    <t>463826</t>
+  </si>
+  <si>
+    <t>499956</t>
+  </si>
+  <si>
+    <t>414880</t>
+  </si>
+  <si>
+    <t>463794</t>
+  </si>
+  <si>
+    <t>418766</t>
+  </si>
+  <si>
+    <t>069906</t>
+  </si>
+  <si>
+    <t>165835</t>
+  </si>
+  <si>
+    <t>068796</t>
+  </si>
+  <si>
+    <t>067025</t>
+  </si>
+  <si>
+    <t>166010</t>
+  </si>
+  <si>
+    <t>165987</t>
+  </si>
+  <si>
+    <t>067041</t>
+  </si>
+  <si>
+    <t>067002</t>
+  </si>
+  <si>
+    <t>067061</t>
+  </si>
+  <si>
+    <t>008599</t>
+  </si>
+  <si>
+    <t>125948</t>
+  </si>
+  <si>
+    <t>011504</t>
+  </si>
+  <si>
+    <t>506531</t>
+  </si>
+  <si>
     <t>B区</t>
   </si>
   <si>
-    <t>0000000</t>
+    <t>509345</t>
+  </si>
+  <si>
+    <t>515599</t>
+  </si>
+  <si>
+    <t>519396</t>
+  </si>
+  <si>
+    <t>518063</t>
+  </si>
+  <si>
+    <t>503158</t>
+  </si>
+  <si>
+    <t>518589</t>
+  </si>
+  <si>
+    <t>518805</t>
+  </si>
+  <si>
+    <t>519470</t>
+  </si>
+  <si>
+    <t>518555</t>
+  </si>
+  <si>
+    <t>518594</t>
+  </si>
+  <si>
+    <t>518031</t>
+  </si>
+  <si>
+    <t>518786</t>
+  </si>
+  <si>
+    <t>519465</t>
+  </si>
+  <si>
+    <t>002186</t>
+  </si>
+  <si>
+    <t>514200</t>
+  </si>
+  <si>
+    <t>115833</t>
+  </si>
+  <si>
+    <t>009599</t>
+  </si>
+  <si>
+    <t>500175</t>
+  </si>
+  <si>
+    <t>067030</t>
   </si>
   <si>
     <t>C区</t>
   </si>
   <si>
-    <t>1111111</t>
+    <t>518744</t>
+  </si>
+  <si>
+    <t>518569</t>
+  </si>
+  <si>
+    <t>516101</t>
+  </si>
+  <si>
+    <t>519467</t>
+  </si>
+  <si>
+    <t>516345</t>
+  </si>
+  <si>
+    <t>518820</t>
+  </si>
+  <si>
+    <t>519392</t>
+  </si>
+  <si>
+    <t>519383</t>
+  </si>
+  <si>
+    <t>518564</t>
+  </si>
+  <si>
+    <t>518067</t>
+  </si>
+  <si>
+    <t>519472</t>
+  </si>
+  <si>
+    <t>518542</t>
+  </si>
+  <si>
+    <t>477037</t>
+  </si>
+  <si>
+    <t>022360</t>
+  </si>
+  <si>
+    <t>076669</t>
+  </si>
+  <si>
+    <t>012038</t>
+  </si>
+  <si>
+    <t>023095</t>
   </si>
   <si>
     <t>D区</t>
   </si>
   <si>
-    <t>3333333</t>
+    <t>510408</t>
+  </si>
+  <si>
+    <t>538810</t>
+  </si>
+  <si>
+    <t>560462</t>
+  </si>
+  <si>
+    <t>076819</t>
+  </si>
+  <si>
+    <t>076676</t>
+  </si>
+  <si>
+    <t>076834</t>
+  </si>
+  <si>
+    <t>076953</t>
+  </si>
+  <si>
+    <t>076906</t>
+  </si>
+  <si>
+    <t>116068</t>
+  </si>
+  <si>
+    <t>076605</t>
+  </si>
+  <si>
+    <t>076414</t>
+  </si>
+  <si>
+    <t>076448</t>
+  </si>
+  <si>
+    <t>076543</t>
+  </si>
+  <si>
+    <t>113379</t>
+  </si>
+  <si>
+    <t>076589</t>
+  </si>
+  <si>
+    <t>076463</t>
+  </si>
+  <si>
+    <t>071805</t>
+  </si>
+  <si>
+    <t>076547</t>
+  </si>
+  <si>
+    <t>559281</t>
   </si>
   <si>
     <t>E区</t>
   </si>
   <si>
+    <t>561047</t>
+  </si>
+  <si>
+    <t>560471</t>
+  </si>
+  <si>
+    <t>536879</t>
+  </si>
+  <si>
+    <t>558459</t>
+  </si>
+  <si>
+    <t>560909</t>
+  </si>
+  <si>
+    <t>554908</t>
+  </si>
+  <si>
+    <t>040845</t>
+  </si>
+  <si>
+    <t>024505</t>
+  </si>
+  <si>
+    <t>040442</t>
+  </si>
+  <si>
+    <t>038893</t>
+  </si>
+  <si>
+    <t>024856</t>
+  </si>
+  <si>
+    <t>026160</t>
+  </si>
+  <si>
+    <t>038870</t>
+  </si>
+  <si>
+    <t>026189</t>
+  </si>
+  <si>
+    <t>013836</t>
+  </si>
+  <si>
+    <t>011176</t>
+  </si>
+  <si>
     <t>F区</t>
   </si>
   <si>
-    <t>2222222</t>
+    <t>481360</t>
+  </si>
+  <si>
+    <t>482837</t>
+  </si>
+  <si>
+    <t>483044</t>
+  </si>
+  <si>
+    <t>009600</t>
+  </si>
+  <si>
+    <t>009068</t>
+  </si>
+  <si>
+    <t>008743</t>
+  </si>
+  <si>
+    <t>009066</t>
+  </si>
+  <si>
+    <t>009071</t>
   </si>
   <si>
     <t>G区</t>
   </si>
   <si>
+    <t>795012</t>
+  </si>
+  <si>
+    <t>786226</t>
+  </si>
+  <si>
+    <t>140405</t>
+  </si>
+  <si>
+    <t>139536</t>
+  </si>
+  <si>
+    <t>139545</t>
+  </si>
+  <si>
+    <t>138877</t>
+  </si>
+  <si>
+    <t>131380</t>
+  </si>
+  <si>
+    <t>131134</t>
+  </si>
+  <si>
+    <t>134952</t>
+  </si>
+  <si>
+    <t>138882</t>
+  </si>
+  <si>
+    <t>136576</t>
+  </si>
+  <si>
+    <t>136667</t>
+  </si>
+  <si>
+    <t>139549</t>
+  </si>
+  <si>
     <t>移交财务</t>
+  </si>
+  <si>
+    <t>558822</t>
+  </si>
+  <si>
+    <t>104269</t>
+  </si>
+  <si>
+    <t>115834</t>
+  </si>
+  <si>
+    <t>481888</t>
+  </si>
+  <si>
+    <t>771444</t>
+  </si>
+  <si>
+    <t>011702</t>
+  </si>
+  <si>
+    <t>779259</t>
+  </si>
+  <si>
+    <t>478515</t>
+  </si>
+  <si>
+    <t>8039325</t>
+  </si>
+  <si>
+    <t>8039380</t>
+  </si>
+  <si>
+    <t>8037678</t>
   </si>
 </sst>
 </file>
@@ -60,10 +423,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -82,33 +445,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,10 +477,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,9 +520,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,20 +559,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -188,16 +566,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,22 +588,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,13 +598,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,97 +754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,13 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,50 +782,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -486,36 +849,23 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF92D050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF92D050"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF92D050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF92D050"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF92D050"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF92D050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF92D050"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF92D050"/>
-      </right>
       <top style="thin">
         <color rgb="FF92D050"/>
       </top>
@@ -582,46 +932,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF92D050"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF92D050"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF92D050"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF92D050"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF92D050"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF92D050"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,12 +979,84 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,89 +1075,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -775,10 +1083,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,146 +1095,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -969,6 +1277,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,24 +1290,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1321,17 +1614,17 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.87037037037037" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.66666666666667" style="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="5.87962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.62962962962963" style="2"/>
+    <col min="3" max="16384" width="8.87962962962963" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:31">
+    <row r="1" customHeight="1" spans="1:31">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1430,191 +1723,377 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="M2" s="8"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8"/>
+      <c r="N2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="6"/>
+      <c r="R2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="U2" s="7"/>
-      <c r="V2" s="8"/>
+      <c r="V2" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="W2" s="6"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="8"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="6"/>
+      <c r="Z2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="AD2" s="8"/>
-      <c r="AE2" s="23"/>
+      <c r="AE2" s="19"/>
     </row>
     <row r="3" customHeight="1" spans="1:31">
       <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:31">
       <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="15"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE4" s="21"/>
     </row>
     <row r="5" customHeight="1" spans="1:31">
       <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="25"/>
+        <v>62</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="U5" s="14"/>
+      <c r="V5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="W5" s="13"/>
+      <c r="X5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="21"/>
     </row>
     <row r="6" customHeight="1" spans="1:31">
       <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="25"/>
+        <v>82</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="U6" s="14"/>
+      <c r="V6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="21"/>
     </row>
     <row r="7" customHeight="1" spans="1:31">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="8"/>
       <c r="H7" s="6"/>
@@ -1624,17 +2103,25 @@
       <c r="L7" s="7"/>
       <c r="M7" s="8"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="O7" s="7"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="7"/>
+      <c r="R7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="V7" s="8"/>
-      <c r="W7" s="6"/>
+      <c r="W7" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="X7" s="7"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="6"/>
@@ -1642,80 +2129,128 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="7"/>
-      <c r="AE7" s="23"/>
+      <c r="AE7" s="19"/>
     </row>
     <row r="8" customHeight="1" spans="1:31">
       <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="24"/>
+        <v>108</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="20"/>
     </row>
     <row r="9" customHeight="1" spans="1:31">
       <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="26"/>
+        <v>122</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
     </row>
     <row r="12" customHeight="1" spans="7:7">
-      <c r="G12" s="22"/>
+      <c r="G12" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
